--- a/中原放盤.xlsx
+++ b/中原放盤.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL5"/>
+  <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1096,6 +1096,124 @@
       </c>
       <c r="AL5" t="n">
         <v>2470</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2023-08-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>39684</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E6" t="n">
+        <v>487</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1892</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4041</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5216</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4714</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3906</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3409</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2606</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1764</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1531</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1225</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1002</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>823</v>
+      </c>
+      <c r="R6" t="n">
+        <v>638</v>
+      </c>
+      <c r="S6" t="n">
+        <v>607</v>
+      </c>
+      <c r="T6" t="n">
+        <v>501</v>
+      </c>
+      <c r="U6" t="n">
+        <v>420</v>
+      </c>
+      <c r="V6" t="n">
+        <v>392</v>
+      </c>
+      <c r="W6" t="n">
+        <v>4407</v>
+      </c>
+      <c r="X6" t="n">
+        <v>364</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>3226</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>5859</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>8166</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>6961</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>4188</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>3082</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1866</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1387</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>4585</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1909</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>4715</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>16510</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>13437</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>2471</v>
       </c>
     </row>
   </sheetData>
@@ -1109,7 +1227,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1424,6 +1542,61 @@
         <v>783</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2023-08-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>13051</v>
+      </c>
+      <c r="C6" t="n">
+        <v>97</v>
+      </c>
+      <c r="D6" t="n">
+        <v>986</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2048</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2840</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2109</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1281</v>
+      </c>
+      <c r="I6" t="n">
+        <v>966</v>
+      </c>
+      <c r="J6" t="n">
+        <v>625</v>
+      </c>
+      <c r="K6" t="n">
+        <v>498</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1601</v>
+      </c>
+      <c r="M6" t="n">
+        <v>562</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1464</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5881</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4158</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>784</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
